--- a/data/hand/excel/exchange_listing.xlsx
+++ b/data/hand/excel/exchange_listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkotsovolos/Desktop/GitHub/ASIM-Coins/data/hand/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrejkotsovolos/Desktop/GitHub/ASIM-Coins/data/hand/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C42BCCC4-E8C9-CD47-97E0-A397F6F098B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9496483E-AB83-AC4E-A3ED-CDA6F6AAA643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exchange_listing" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Bitcoin</t>
   </si>
@@ -77,15 +77,12 @@
   </si>
   <si>
     <t>Crypto.com Exchange</t>
-  </si>
-  <si>
-    <t>Exchange</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -919,17 +916,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>19</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
